--- a/reports/Results_table.xlsx
+++ b/reports/Results_table.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hp/GitHub/EEG/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hp/GitHub/EEG/reports/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4AC6BCBD-6AEA-B242-AA8C-7DB3DF8FDC15}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2C0306F-68E0-4245-8354-814C86A1BB47}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3180" yWindow="2060" windowWidth="27640" windowHeight="16940" xr2:uid="{BA87DAA3-A384-EB4A-8863-C5C6B40D54ED}"/>
+    <workbookView xWindow="5480" yWindow="2940" windowWidth="27640" windowHeight="16940" xr2:uid="{BA87DAA3-A384-EB4A-8863-C5C6B40D54ED}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -408,7 +408,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D4"/>
+      <selection activeCell="A4" sqref="A4:E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/reports/Results_table.xlsx
+++ b/reports/Results_table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hp/GitHub/EEG/reports/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2C0306F-68E0-4245-8354-814C86A1BB47}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38574E03-2530-0F4A-AEB1-1D2BFDAEC914}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5480" yWindow="2940" windowWidth="27640" windowHeight="16940" xr2:uid="{BA87DAA3-A384-EB4A-8863-C5C6B40D54ED}"/>
+    <workbookView xWindow="3260" yWindow="2620" windowWidth="27640" windowHeight="16940" xr2:uid="{BA87DAA3-A384-EB4A-8863-C5C6B40D54ED}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Settings/Patients</t>
   </si>
@@ -43,6 +43,9 @@
   </si>
   <si>
     <t>90 without delta</t>
+  </si>
+  <si>
+    <t>124 with delta no</t>
   </si>
 </sst>
 </file>
@@ -65,12 +68,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -85,10 +94,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -407,8 +419,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B83447A-83E2-6F4B-8CB1-91BD9B1562E7}">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:E4"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -436,63 +448,62 @@
     </row>
     <row r="2" spans="1:5" ht="31" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="2">
-        <v>88.77</v>
-      </c>
-      <c r="C2" s="2">
-        <v>75.34</v>
-      </c>
-      <c r="D2" s="2">
-        <v>70.150000000000006</v>
-      </c>
-      <c r="E2" s="2">
-        <v>81.58</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="31" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3" s="2">
-        <v>89.14</v>
+        <v>88.77</v>
       </c>
       <c r="C3" s="2">
-        <v>72.849999999999994</v>
-      </c>
-      <c r="D3" s="2">
-        <v>70.44</v>
-      </c>
-      <c r="E3" s="2">
-        <v>80.16</v>
+        <v>75.34</v>
+      </c>
+      <c r="D3" s="3">
+        <v>70.150000000000006</v>
+      </c>
+      <c r="E3" s="3">
+        <v>81.58</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="31" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4" s="2">
-        <v>88.54</v>
+        <v>89.14</v>
       </c>
       <c r="C4" s="2">
-        <v>73.47</v>
-      </c>
-      <c r="D4" s="2">
-        <v>70.260000000000005</v>
-      </c>
-      <c r="E4" s="2">
-        <v>80</v>
+        <v>72.849999999999994</v>
+      </c>
+      <c r="D4" s="3">
+        <v>70.44</v>
+      </c>
+      <c r="E4" s="3">
+        <v>80.16</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="31" x14ac:dyDescent="0.35">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
+      <c r="A5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="2">
+        <v>88.54</v>
+      </c>
+      <c r="C5" s="2">
+        <v>73.47</v>
+      </c>
+      <c r="D5" s="3">
+        <v>70.260000000000005</v>
+      </c>
+      <c r="E5" s="3">
+        <v>80</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/reports/Results_table.xlsx
+++ b/reports/Results_table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hp/GitHub/EEG/reports/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38574E03-2530-0F4A-AEB1-1D2BFDAEC914}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1A60434-0E4F-0448-98F7-29C694F6BAA3}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3260" yWindow="2620" windowWidth="27640" windowHeight="16940" xr2:uid="{BA87DAA3-A384-EB4A-8863-C5C6B40D54ED}"/>
   </bookViews>
@@ -20,12 +20,17 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Settings/Patients</t>
   </si>
@@ -42,17 +47,23 @@
     <t>124 without delta</t>
   </si>
   <si>
-    <t>90 without delta</t>
-  </si>
-  <si>
-    <t>124 with delta no</t>
+    <t>Original monthly epoch, original Python split (90 without delta)</t>
+  </si>
+  <si>
+    <t>Original monthly epoch, NEW even split</t>
+  </si>
+  <si>
+    <t>NEW weekly epoch, NEW even split</t>
+  </si>
+  <si>
+    <t>NEW biweekly epoch, NEW even split</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -67,8 +78,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -78,6 +96,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -94,15 +118,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -417,90 +451,199 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B83447A-83E2-6F4B-8CB1-91BD9B1562E7}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="24" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="31" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="77.83203125" style="8" customWidth="1"/>
     <col min="2" max="5" width="28.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="31" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:12" ht="31" x14ac:dyDescent="0.35">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2">
+      <c r="B1" s="1">
         <v>231</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2">
+      <c r="E1" s="1">
+        <v>241</v>
+      </c>
+      <c r="L1" s="1">
         <v>229</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="31" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:12" s="4" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="2">
+        <v>88.77</v>
+      </c>
+      <c r="C2" s="2">
+        <v>75.34</v>
+      </c>
+      <c r="D2" s="2">
+        <v>70.150000000000006</v>
+      </c>
+      <c r="E2" s="2">
+        <v>87.87</v>
+      </c>
+      <c r="L2" s="2">
+        <v>83.69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" s="4" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="2">
+        <v>89.14</v>
+      </c>
+      <c r="C3" s="2">
+        <v>72.849999999999994</v>
+      </c>
+      <c r="D3" s="2">
+        <v>70.44</v>
+      </c>
+      <c r="L3" s="2">
+        <v>83.74</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" s="6" customFormat="1" ht="31" x14ac:dyDescent="0.35">
+      <c r="A4" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="5">
+        <v>88.54</v>
+      </c>
+      <c r="C4" s="5">
+        <v>73.47</v>
+      </c>
+      <c r="D4" s="5">
+        <v>70.260000000000005</v>
+      </c>
+      <c r="E4" s="5">
+        <v>87.87</v>
+      </c>
+      <c r="L4" s="5">
+        <v>83.12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="31" x14ac:dyDescent="0.35">
+      <c r="A5" s="8" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="31" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="2">
-        <v>88.77</v>
-      </c>
-      <c r="C3" s="2">
-        <v>75.34</v>
-      </c>
-      <c r="D3" s="3">
-        <v>70.150000000000006</v>
-      </c>
-      <c r="E3" s="3">
-        <v>81.58</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="31" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="2">
-        <v>89.14</v>
-      </c>
-      <c r="C4" s="2">
-        <v>72.849999999999994</v>
-      </c>
-      <c r="D4" s="3">
-        <v>70.44</v>
-      </c>
-      <c r="E4" s="3">
-        <v>80.16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="31" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="2">
-        <v>88.54</v>
-      </c>
-      <c r="C5" s="2">
-        <v>73.47</v>
+      <c r="B5" s="1">
+        <v>83.5</v>
+      </c>
+      <c r="C5" s="1">
+        <v>65.900000000000006</v>
       </c>
       <c r="D5" s="3">
-        <v>70.260000000000005</v>
+        <v>77.25</v>
       </c>
       <c r="E5" s="3">
-        <v>80</v>
-      </c>
+        <v>87.84</v>
+      </c>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="1:12" ht="31" x14ac:dyDescent="0.35">
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="1:12" ht="31" x14ac:dyDescent="0.35">
+      <c r="A7" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="1">
+        <v>60.94</v>
+      </c>
+      <c r="C7" s="1">
+        <v>73.78</v>
+      </c>
+      <c r="D7" s="3">
+        <v>59.3</v>
+      </c>
+      <c r="E7" s="3">
+        <v>72.22</v>
+      </c>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+    </row>
+    <row r="8" spans="1:12" ht="31" x14ac:dyDescent="0.35">
+      <c r="A8" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="1">
+        <v>66.58</v>
+      </c>
+      <c r="C8" s="1">
+        <v>72.73</v>
+      </c>
+      <c r="D8" s="3">
+        <v>70.25</v>
+      </c>
+      <c r="E8" s="3">
+        <v>87.74</v>
+      </c>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="1:12" ht="31" x14ac:dyDescent="0.35">
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="1:12" ht="31" x14ac:dyDescent="0.35">
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="1:12" ht="31" x14ac:dyDescent="0.35">
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+    </row>
+    <row r="12" spans="1:12" ht="31" x14ac:dyDescent="0.35">
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+    </row>
+    <row r="13" spans="1:12" ht="31" x14ac:dyDescent="0.35">
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/reports/Results_table.xlsx
+++ b/reports/Results_table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hp/GitHub/EEG/reports/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1A60434-0E4F-0448-98F7-29C694F6BAA3}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FA3D711-AFE4-074C-AAC5-0F086D704F19}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3260" yWindow="2620" windowWidth="27640" windowHeight="16940" xr2:uid="{BA87DAA3-A384-EB4A-8863-C5C6B40D54ED}"/>
+    <workbookView xWindow="3560" yWindow="2140" windowWidth="27640" windowHeight="16940" xr2:uid="{BA87DAA3-A384-EB4A-8863-C5C6B40D54ED}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Settings/Patients</t>
   </si>
@@ -57,6 +57,15 @@
   </si>
   <si>
     <t>NEW biweekly epoch, NEW even split</t>
+  </si>
+  <si>
+    <t>Original monthly epoch, old split, random seed = 11</t>
+  </si>
+  <si>
+    <t>Original monthly epoch, old split, random seed = 77</t>
+  </si>
+  <si>
+    <t>Original monthly epoch, old split, random seed = 93</t>
   </si>
 </sst>
 </file>
@@ -454,7 +463,7 @@
   <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="D41" sqref="D29:I41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="24" x14ac:dyDescent="0.3"/>
@@ -614,26 +623,59 @@
       <c r="G9" s="1"/>
     </row>
     <row r="10" spans="1:12" ht="31" x14ac:dyDescent="0.35">
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
+      <c r="A10" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1">
+        <v>83.19</v>
+      </c>
+      <c r="C10" s="1">
+        <v>73.37</v>
+      </c>
+      <c r="D10" s="3">
+        <v>59.83</v>
+      </c>
+      <c r="E10" s="3">
+        <v>72.599999999999994</v>
+      </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
     </row>
     <row r="11" spans="1:12" ht="31" x14ac:dyDescent="0.35">
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
+      <c r="A11" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1">
+        <v>85.04</v>
+      </c>
+      <c r="C11" s="1">
+        <v>66.290000000000006</v>
+      </c>
+      <c r="D11" s="3">
+        <v>68.27</v>
+      </c>
+      <c r="E11" s="3">
+        <v>89.87</v>
+      </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
     </row>
     <row r="12" spans="1:12" ht="31" x14ac:dyDescent="0.35">
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
+      <c r="A12" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1">
+        <v>85.12</v>
+      </c>
+      <c r="C12" s="1">
+        <v>69.19</v>
+      </c>
+      <c r="D12" s="3">
+        <v>76.62</v>
+      </c>
+      <c r="E12" s="3">
+        <v>83.87</v>
+      </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
     </row>

--- a/reports/Results_table.xlsx
+++ b/reports/Results_table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hp/GitHub/EEG/reports/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FA3D711-AFE4-074C-AAC5-0F086D704F19}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF792389-2FF4-1A49-960D-2C2F32307CF9}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3560" yWindow="2140" windowWidth="27640" windowHeight="16940" xr2:uid="{BA87DAA3-A384-EB4A-8863-C5C6B40D54ED}"/>
   </bookViews>
@@ -463,7 +463,7 @@
   <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D41" sqref="D29:I41"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="24" x14ac:dyDescent="0.3"/>

--- a/reports/Results_table.xlsx
+++ b/reports/Results_table.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10309"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hp/GitHub/EEG/reports/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF792389-2FF4-1A49-960D-2C2F32307CF9}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1494B1B2-2C07-EF4B-8D7F-18DCC4B430DB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3560" yWindow="2140" windowWidth="27640" windowHeight="16940" xr2:uid="{BA87DAA3-A384-EB4A-8863-C5C6B40D54ED}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Settings/Patients</t>
   </si>
@@ -66,6 +66,15 @@
   </si>
   <si>
     <t>Original monthly epoch, old split, random seed = 93</t>
+  </si>
+  <si>
+    <t>Sliding window, window size = 7, Log(long episode)</t>
+  </si>
+  <si>
+    <t>Sliding window, window size = 31, Log(long episode)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sliding window, window size = 7, Log(long episode), random label </t>
   </si>
 </sst>
 </file>
@@ -95,7 +104,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -114,6 +123,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -127,15 +142,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -146,6 +158,10 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -460,20 +476,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B83447A-83E2-6F4B-8CB1-91BD9B1562E7}">
-  <dimension ref="A1:L13"/>
+  <dimension ref="A1:L15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="24" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="77.83203125" style="8" customWidth="1"/>
+    <col min="1" max="1" width="77.83203125" style="7" customWidth="1"/>
     <col min="2" max="5" width="28.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="31" x14ac:dyDescent="0.35">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1">
@@ -492,8 +508,8 @@
         <v>229</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="4" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="9" t="s">
+    <row r="2" spans="1:12" s="3" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="8" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="2">
@@ -512,8 +528,8 @@
         <v>83.69</v>
       </c>
     </row>
-    <row r="3" spans="1:12" s="4" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="9" t="s">
+    <row r="3" spans="1:12" s="3" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="8" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="2">
@@ -529,163 +545,201 @@
         <v>83.74</v>
       </c>
     </row>
-    <row r="4" spans="1:12" s="6" customFormat="1" ht="31" x14ac:dyDescent="0.35">
-      <c r="A4" s="7" t="s">
+    <row r="4" spans="1:12" s="5" customFormat="1" ht="31" x14ac:dyDescent="0.35">
+      <c r="A4" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="4">
         <v>88.54</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="4">
         <v>73.47</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="4">
         <v>70.260000000000005</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="4">
         <v>87.87</v>
       </c>
-      <c r="L4" s="5">
+      <c r="F4" s="4"/>
+      <c r="L4" s="4">
         <v>83.12</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="31" x14ac:dyDescent="0.35">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="4">
+        <v>60.33</v>
+      </c>
+      <c r="C5" s="4">
+        <v>69.11</v>
+      </c>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4">
+        <v>78.36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="31" x14ac:dyDescent="0.35">
+      <c r="A6" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="4">
+        <v>59</v>
+      </c>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="31" x14ac:dyDescent="0.35">
+      <c r="A7" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="4">
+        <v>54.52</v>
+      </c>
+      <c r="C7" s="4">
+        <v>49.18</v>
+      </c>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4">
+        <v>54.36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="31" x14ac:dyDescent="0.35">
+      <c r="A8" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B8" s="10">
         <v>83.5</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C8" s="10">
         <v>65.900000000000006</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D8" s="10">
         <v>77.25</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E8" s="10">
         <v>87.84</v>
-      </c>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-    </row>
-    <row r="6" spans="1:12" ht="31" x14ac:dyDescent="0.35">
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-    </row>
-    <row r="7" spans="1:12" ht="31" x14ac:dyDescent="0.35">
-      <c r="A7" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="1">
-        <v>60.94</v>
-      </c>
-      <c r="C7" s="1">
-        <v>73.78</v>
-      </c>
-      <c r="D7" s="3">
-        <v>59.3</v>
-      </c>
-      <c r="E7" s="3">
-        <v>72.22</v>
-      </c>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-    </row>
-    <row r="8" spans="1:12" ht="31" x14ac:dyDescent="0.35">
-      <c r="A8" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="1">
-        <v>66.58</v>
-      </c>
-      <c r="C8" s="1">
-        <v>72.73</v>
-      </c>
-      <c r="D8" s="3">
-        <v>70.25</v>
-      </c>
-      <c r="E8" s="3">
-        <v>87.74</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
     </row>
     <row r="9" spans="1:12" ht="31" x14ac:dyDescent="0.35">
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
+      <c r="A9" s="9"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
     </row>
     <row r="10" spans="1:12" ht="31" x14ac:dyDescent="0.35">
-      <c r="A10" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="1">
-        <v>83.19</v>
-      </c>
-      <c r="C10" s="1">
-        <v>73.37</v>
-      </c>
-      <c r="D10" s="3">
-        <v>59.83</v>
-      </c>
-      <c r="E10" s="3">
-        <v>72.599999999999994</v>
+      <c r="A10" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="10">
+        <v>60.94</v>
+      </c>
+      <c r="C10" s="10">
+        <v>73.78</v>
+      </c>
+      <c r="D10" s="10">
+        <v>59.3</v>
+      </c>
+      <c r="E10" s="10">
+        <v>72.22</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
     </row>
     <row r="11" spans="1:12" ht="31" x14ac:dyDescent="0.35">
-      <c r="A11" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="1">
-        <v>85.04</v>
-      </c>
-      <c r="C11" s="1">
-        <v>66.290000000000006</v>
-      </c>
-      <c r="D11" s="3">
-        <v>68.27</v>
-      </c>
-      <c r="E11" s="3">
-        <v>89.87</v>
+      <c r="A11" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="10">
+        <v>66.58</v>
+      </c>
+      <c r="C11" s="10">
+        <v>72.73</v>
+      </c>
+      <c r="D11" s="10">
+        <v>70.25</v>
+      </c>
+      <c r="E11" s="10">
+        <v>87.74</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
     </row>
     <row r="12" spans="1:12" ht="31" x14ac:dyDescent="0.35">
-      <c r="A12" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="1">
-        <v>85.12</v>
-      </c>
-      <c r="C12" s="1">
-        <v>69.19</v>
-      </c>
-      <c r="D12" s="3">
-        <v>76.62</v>
-      </c>
-      <c r="E12" s="3">
-        <v>83.87</v>
-      </c>
+      <c r="A12" s="9"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
     </row>
     <row r="13" spans="1:12" ht="31" x14ac:dyDescent="0.35">
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
+      <c r="A13" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="10">
+        <v>83.19</v>
+      </c>
+      <c r="C13" s="10">
+        <v>73.37</v>
+      </c>
+      <c r="D13" s="10">
+        <v>59.83</v>
+      </c>
+      <c r="E13" s="10">
+        <v>72.599999999999994</v>
+      </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
+    </row>
+    <row r="14" spans="1:12" ht="31" x14ac:dyDescent="0.35">
+      <c r="A14" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="10">
+        <v>85.04</v>
+      </c>
+      <c r="C14" s="10">
+        <v>66.290000000000006</v>
+      </c>
+      <c r="D14" s="10">
+        <v>68.27</v>
+      </c>
+      <c r="E14" s="10">
+        <v>89.87</v>
+      </c>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+    </row>
+    <row r="15" spans="1:12" ht="31" x14ac:dyDescent="0.35">
+      <c r="A15" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" s="10">
+        <v>85.12</v>
+      </c>
+      <c r="C15" s="10">
+        <v>69.19</v>
+      </c>
+      <c r="D15" s="10">
+        <v>76.62</v>
+      </c>
+      <c r="E15" s="10">
+        <v>83.87</v>
+      </c>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/reports/Results_table.xlsx
+++ b/reports/Results_table.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10309"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10812"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hp/GitHub/EEG/reports/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1494B1B2-2C07-EF4B-8D7F-18DCC4B430DB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C05EF6AF-5F59-E04D-A890-DD4A91E72DED}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3560" yWindow="2140" windowWidth="27640" windowHeight="16940" xr2:uid="{BA87DAA3-A384-EB4A-8863-C5C6B40D54ED}"/>
+    <workbookView xWindow="23280" yWindow="6940" windowWidth="33560" windowHeight="19340" xr2:uid="{BA87DAA3-A384-EB4A-8863-C5C6B40D54ED}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,6 +23,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -30,10 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
-  <si>
-    <t>Settings/Patients</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>222_1</t>
   </si>
@@ -41,33 +39,9 @@
     <t>222_2</t>
   </si>
   <si>
-    <t>124 with delta</t>
-  </si>
-  <si>
-    <t>124 without delta</t>
-  </si>
-  <si>
     <t>Original monthly epoch, original Python split (90 without delta)</t>
   </si>
   <si>
-    <t>Original monthly epoch, NEW even split</t>
-  </si>
-  <si>
-    <t>NEW weekly epoch, NEW even split</t>
-  </si>
-  <si>
-    <t>NEW biweekly epoch, NEW even split</t>
-  </si>
-  <si>
-    <t>Original monthly epoch, old split, random seed = 11</t>
-  </si>
-  <si>
-    <t>Original monthly epoch, old split, random seed = 77</t>
-  </si>
-  <si>
-    <t>Original monthly epoch, old split, random seed = 93</t>
-  </si>
-  <si>
     <t>Sliding window, window size = 7, Log(long episode)</t>
   </si>
   <si>
@@ -75,13 +49,37 @@
   </si>
   <si>
     <t xml:space="preserve">Sliding window, window size = 7, Log(long episode), random label </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Settings/Patients </t>
+  </si>
+  <si>
+    <t xml:space="preserve">225 new </t>
+  </si>
+  <si>
+    <t xml:space="preserve">239 new </t>
+  </si>
+  <si>
+    <t>222 new</t>
+  </si>
+  <si>
+    <t>Scheduled</t>
+  </si>
+  <si>
+    <t>Good</t>
+  </si>
+  <si>
+    <t>Bad</t>
+  </si>
+  <si>
+    <t>239(1/4/2018 - 5/24/2019)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -103,8 +101,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="22"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -113,19 +118,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="1"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="1" tint="0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -142,25 +135,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -476,270 +465,264 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B83447A-83E2-6F4B-8CB1-91BD9B1562E7}">
-  <dimension ref="A1:L15"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" zoomScale="63" zoomScaleNormal="63" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="24" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="77.83203125" style="7" customWidth="1"/>
-    <col min="2" max="5" width="28.83203125" customWidth="1"/>
+    <col min="1" max="1" width="77.83203125" style="3" customWidth="1"/>
+    <col min="2" max="10" width="15.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="31" x14ac:dyDescent="0.35">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="A1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="4">
+        <v>231</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1">
-        <v>231</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="G1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="H1" s="4">
+        <v>241</v>
+      </c>
+      <c r="I1" s="4">
+        <v>229</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" s="2" customFormat="1" ht="31" x14ac:dyDescent="0.35">
+      <c r="A2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="1">
+        <v>532</v>
+      </c>
+      <c r="C2" s="1">
+        <v>457</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1373</v>
+      </c>
+      <c r="E2" s="1">
+        <v>893</v>
+      </c>
+      <c r="F2">
+        <v>728</v>
+      </c>
+      <c r="G2">
+        <v>624</v>
+      </c>
+      <c r="H2">
+        <v>569</v>
+      </c>
+      <c r="I2">
+        <v>1115</v>
+      </c>
+      <c r="J2" s="1">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="31" x14ac:dyDescent="0.35">
+      <c r="A3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="1">
+        <v>280</v>
+      </c>
+      <c r="C3" s="1">
+        <v>213</v>
+      </c>
+      <c r="D3" s="1">
+        <v>645</v>
+      </c>
+      <c r="E3" s="1">
+        <v>537</v>
+      </c>
+      <c r="F3">
+        <v>276</v>
+      </c>
+      <c r="G3">
+        <v>265</v>
+      </c>
+      <c r="H3">
+        <v>281</v>
+      </c>
+      <c r="I3">
+        <v>346</v>
+      </c>
+      <c r="J3" s="1">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="31" x14ac:dyDescent="0.35">
+      <c r="A4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="1">
+        <v>252</v>
+      </c>
+      <c r="C4" s="1">
+        <v>244</v>
+      </c>
+      <c r="D4" s="1">
+        <v>728</v>
+      </c>
+      <c r="E4" s="1">
+        <v>356</v>
+      </c>
+      <c r="F4">
+        <v>452</v>
+      </c>
+      <c r="G4">
+        <v>359</v>
+      </c>
+      <c r="H4">
+        <v>288</v>
+      </c>
+      <c r="I4">
+        <v>769</v>
+      </c>
+      <c r="J4" s="1">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="31" x14ac:dyDescent="0.35">
+      <c r="A5" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1">
-        <v>241</v>
-      </c>
-      <c r="L1" s="1">
-        <v>229</v>
+      <c r="B5" s="1">
+        <v>77</v>
+      </c>
+      <c r="C5" s="1">
+        <v>72</v>
+      </c>
+      <c r="D5" s="1">
+        <v>70</v>
+      </c>
+      <c r="E5" s="1">
+        <v>88.54</v>
+      </c>
+      <c r="F5" s="1">
+        <v>73.47</v>
+      </c>
+      <c r="G5" s="1">
+        <v>70.260000000000005</v>
+      </c>
+      <c r="H5" s="1">
+        <v>87.87</v>
+      </c>
+      <c r="I5" s="1">
+        <v>77</v>
+      </c>
+      <c r="J5" s="1">
+        <v>72</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="3" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="8" t="s">
+    <row r="6" spans="1:10" ht="31" x14ac:dyDescent="0.35">
+      <c r="A6" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="2">
-        <v>88.77</v>
-      </c>
-      <c r="C2" s="2">
-        <v>75.34</v>
-      </c>
-      <c r="D2" s="2">
-        <v>70.150000000000006</v>
-      </c>
-      <c r="E2" s="2">
-        <v>87.87</v>
-      </c>
-      <c r="L2" s="2">
-        <v>83.69</v>
+      <c r="B6" s="1">
+        <v>62</v>
+      </c>
+      <c r="C6" s="1">
+        <v>65</v>
+      </c>
+      <c r="D6" s="1">
+        <v>58.6</v>
+      </c>
+      <c r="E6" s="1">
+        <v>60.33</v>
+      </c>
+      <c r="F6" s="1">
+        <v>69.11</v>
+      </c>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1">
+        <v>78.36</v>
+      </c>
+      <c r="I6" s="1">
+        <v>62</v>
+      </c>
+      <c r="J6" s="1">
+        <v>65</v>
       </c>
     </row>
-    <row r="3" spans="1:12" s="3" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="8" t="s">
+    <row r="7" spans="1:10" ht="31" x14ac:dyDescent="0.35">
+      <c r="A7" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="2">
-        <v>89.14</v>
-      </c>
-      <c r="C3" s="2">
-        <v>72.849999999999994</v>
-      </c>
-      <c r="D3" s="2">
-        <v>70.44</v>
-      </c>
-      <c r="L3" s="2">
-        <v>83.74</v>
+      <c r="B7" s="1">
+        <v>57</v>
+      </c>
+      <c r="C7" s="1">
+        <v>80</v>
+      </c>
+      <c r="D7" s="1">
+        <v>67.7</v>
+      </c>
+      <c r="E7" s="1">
+        <v>59</v>
+      </c>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1">
+        <v>86</v>
+      </c>
+      <c r="I7" s="1">
+        <v>57</v>
+      </c>
+      <c r="J7" s="1">
+        <v>80</v>
       </c>
     </row>
-    <row r="4" spans="1:12" s="5" customFormat="1" ht="31" x14ac:dyDescent="0.35">
-      <c r="A4" s="6" t="s">
+    <row r="8" spans="1:10" ht="31" x14ac:dyDescent="0.35">
+      <c r="A8" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="4">
-        <v>88.54</v>
-      </c>
-      <c r="C4" s="4">
-        <v>73.47</v>
-      </c>
-      <c r="D4" s="4">
-        <v>70.260000000000005</v>
-      </c>
-      <c r="E4" s="4">
-        <v>87.87</v>
-      </c>
-      <c r="F4" s="4"/>
-      <c r="L4" s="4">
-        <v>83.12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="31" x14ac:dyDescent="0.35">
-      <c r="A5" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="4">
-        <v>60.33</v>
-      </c>
-      <c r="C5" s="4">
-        <v>69.11</v>
-      </c>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4">
-        <v>78.36</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="31" x14ac:dyDescent="0.35">
-      <c r="A6" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="4">
-        <v>59</v>
-      </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="31" x14ac:dyDescent="0.35">
-      <c r="A7" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="4">
+      <c r="B8" s="1">
+        <v>53</v>
+      </c>
+      <c r="C8" s="1">
+        <v>52</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1">
         <v>54.52</v>
       </c>
-      <c r="C7" s="4">
+      <c r="F8" s="1">
         <v>49.18</v>
       </c>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4">
+      <c r="G8" s="1"/>
+      <c r="H8" s="1">
         <v>54.36</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" ht="31" x14ac:dyDescent="0.35">
-      <c r="A8" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="10">
-        <v>83.5</v>
-      </c>
-      <c r="C8" s="10">
-        <v>65.900000000000006</v>
-      </c>
-      <c r="D8" s="10">
-        <v>77.25</v>
-      </c>
-      <c r="E8" s="10">
-        <v>87.84</v>
-      </c>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-    </row>
-    <row r="9" spans="1:12" ht="31" x14ac:dyDescent="0.35">
-      <c r="A9" s="9"/>
-      <c r="B9" s="10"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-    </row>
-    <row r="10" spans="1:12" ht="31" x14ac:dyDescent="0.35">
-      <c r="A10" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="10">
-        <v>60.94</v>
-      </c>
-      <c r="C10" s="10">
-        <v>73.78</v>
-      </c>
-      <c r="D10" s="10">
-        <v>59.3</v>
-      </c>
-      <c r="E10" s="10">
-        <v>72.22</v>
-      </c>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-    </row>
-    <row r="11" spans="1:12" ht="31" x14ac:dyDescent="0.35">
-      <c r="A11" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" s="10">
-        <v>66.58</v>
-      </c>
-      <c r="C11" s="10">
-        <v>72.73</v>
-      </c>
-      <c r="D11" s="10">
-        <v>70.25</v>
-      </c>
-      <c r="E11" s="10">
-        <v>87.74</v>
-      </c>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-    </row>
-    <row r="12" spans="1:12" ht="31" x14ac:dyDescent="0.35">
-      <c r="A12" s="9"/>
-      <c r="B12" s="10"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-    </row>
-    <row r="13" spans="1:12" ht="31" x14ac:dyDescent="0.35">
-      <c r="A13" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B13" s="10">
-        <v>83.19</v>
-      </c>
-      <c r="C13" s="10">
-        <v>73.37</v>
-      </c>
-      <c r="D13" s="10">
-        <v>59.83</v>
-      </c>
-      <c r="E13" s="10">
-        <v>72.599999999999994</v>
-      </c>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-    </row>
-    <row r="14" spans="1:12" ht="31" x14ac:dyDescent="0.35">
-      <c r="A14" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B14" s="10">
-        <v>85.04</v>
-      </c>
-      <c r="C14" s="10">
-        <v>66.290000000000006</v>
-      </c>
-      <c r="D14" s="10">
-        <v>68.27</v>
-      </c>
-      <c r="E14" s="10">
-        <v>89.87</v>
-      </c>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-    </row>
-    <row r="15" spans="1:12" ht="31" x14ac:dyDescent="0.35">
-      <c r="A15" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B15" s="10">
-        <v>85.12</v>
-      </c>
-      <c r="C15" s="10">
-        <v>69.19</v>
-      </c>
-      <c r="D15" s="10">
-        <v>76.62</v>
-      </c>
-      <c r="E15" s="10">
-        <v>83.87</v>
-      </c>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
+      <c r="I8" s="1">
+        <v>53</v>
+      </c>
+      <c r="J8" s="1">
+        <v>52</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
